--- a/medicine/Enfance/Caroline_B._Cooney/Caroline_B._Cooney.xlsx
+++ b/medicine/Enfance/Caroline_B._Cooney/Caroline_B._Cooney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline B. Cooney, née le 10 mai 1947 à Geneva, dans l'état de New York, aux États-Unis, est une romancière américaine. Auteure de plusieurs récits policiers, d'horreur et de fantasy, appartenant le plus souvent à la littérature d'enfance et de jeunesse, elle a publié plus de cent titres au cours de sa carrière.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle suit les cours de l'université de l'Indiana, du MGH Institute of Health Professions et de l'université du Connecticut.
 Elle publie en 1979 un premier roman pour la jeunesse nommé Safe as the Grave, suivi en 1980 d'un thriller à destination d'un lectorat adulte intitulé Rear-View Mirror. Ce roman est traduit en France sous le titre Le Rétroviseur aux Denoël dans la collection Sueurs froides en 1983 avant d'être adapté pour la télévision et de devenir le téléfilm SOS Otages (Rear-View Mirror) sous la direction de Lou Antonio.
@@ -546,29 +560,185 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie The Vampire's Promise
-Deadly Offer ou The Cheerleader (1991)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie The Vampire's Promise</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deadly Offer ou The Cheerleader (1991)
 Evil Returns ou The Return of the Vampire (1992)
-Fatal Bargain ou The Vampire's Promise (1993)
-Série Janie Johnson
-The Face on the Milk Carton (1990) Publié en français sous le titre La Photo de Jenny Spring, traduction de Denise Caussé, Paris, Hachette, Le Livre de poche, coll. « Jeunesse » no 378, 1992.
+Fatal Bargain ou The Vampire's Promise (1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Janie Johnson</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Face on the Milk Carton (1990) Publié en français sous le titre La Photo de Jenny Spring, traduction de Denise Caussé, Paris, Hachette, Le Livre de poche, coll. « Jeunesse » no 378, 1992.
 Whatever Happened to Janie? (1993)
 The Voice on the Radio (1996)
 What Janie Found (2000)
 What Janie Saw (2012)
-Janie Face to Face (2013)
-Série Losing Christina
-Fog (1989) Publié en français sous le titre Les Terreurs de Coralie : La Pension infernale, traduction de Suzanne Spino, Paris, Casterman, coll. « Tapage Angoisse » no 1, 1997.
+Janie Face to Face (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Losing Christina</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fog (1989) Publié en français sous le titre Les Terreurs de Coralie : La Pension infernale, traduction de Suzanne Spino, Paris, Casterman, coll. « Tapage Angoisse » no 1, 1997.
 Snow (1991) Publié en français sous le titre Les Terreurs de Coralie : Le Secret de l'auberge, traduction de Suzanne Spino, Paris, Casterman, coll. « Tapage Angoisse » no 2, 1997.
-Fire (1992) Publié en français sous le titre Les Terreurs de Coralie : Les Flammes accusatrices, traduction de Suzanne Spino, Paris, Casterman, coll. « Tapage Angoisse » no 7, 1997.
-Quadralogie Time Travelers
-Both Sides of Time (1995)
+Fire (1992) Publié en français sous le titre Les Terreurs de Coralie : Les Flammes accusatrices, traduction de Suzanne Spino, Paris, Casterman, coll. « Tapage Angoisse » no 7, 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Quadralogie Time Travelers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Both Sides of Time (1995)
 Out of Time (1996)
 Prisoner of Time (1998)
-For All Time (2001)
-Autres romans
-Safe as the Grave (1979)
+For All Time (2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Safe as the Grave (1979)
 Rear-View Mirror (1980) Publié en français sous le titre Dans le rétroviseur, traduction d’Élisabeth Gille, Paris, Denoël, coll. « Sueurs froides », 1983.
 The Paper Caper (1981) (avec Gail Owens)
 An April Love Story (1981)
@@ -647,97 +817,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme auteur adapté
-1984 : SOS Otages (Rear-View Mirror), téléfilm américain réalisé par Lou Antonio d'après le roman éponyme, avec Lee Remick et Tony Musante.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comme auteur adapté</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1984 : SOS Otages (Rear-View Mirror), téléfilm américain réalisé par Lou Antonio d'après le roman éponyme, avec Lee Remick et Tony Musante.
 1995 : Photo sans identité (The Face on the Milk Carton), téléfilm américain réalisé par Waris Hussein d'après le roman éponyme, avec Kellie Martin, Sharon Lawrence, Edward Herrmann, Richard Masur et Jill Clayburgh.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nominations
-Prix Edgar-Allan-Poe du meilleur roman pour jeunes adultes en 2008 pour Diamonds in the Shadow.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe du meilleur roman pour jeunes adultes en 2008 pour Diamonds in the Shadow.
 Prix Edgar-Allan-Poe du meilleur roman pour jeunes adultes en 2010 pour If the Witness Lied.
-Prix Edgar-Allan-Poe du meilleur roman en 2021 pour Before She Was Helen[1]
-Prix Macavity du meilleur roman en 2021 pour Before She Was Helen[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+Prix Edgar-Allan-Poe du meilleur roman en 2021 pour Before She Was Helen
+Prix Macavity du meilleur roman en 2021 pour Before She Was Helen</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caroline_B._Cooney</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 476</t>
